--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2669.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2669.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159974759956895</v>
+        <v>1.314557909965515</v>
       </c>
       <c r="B1">
-        <v>2.422155769621429</v>
+        <v>1.328503251075745</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.427729249000549</v>
       </c>
       <c r="D1">
-        <v>2.327650306009851</v>
+        <v>2.045637369155884</v>
       </c>
       <c r="E1">
-        <v>1.21037330366015</v>
+        <v>4.123985767364502</v>
       </c>
     </row>
   </sheetData>
